--- a/微指令.xlsx
+++ b/微指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\cpu_8bit_fpga\cpu_8bit_fpga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA32973-0D71-419C-B36F-75A6EBC08DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265916E3-7784-4621-8EB4-9F6D35891A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,15 +252,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,9 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,74 +578,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -843,7 +843,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -926,7 +926,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2">
@@ -1761,7 +1761,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="AD20" s="2"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2">
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="2">
         <v>0</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2">
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="AD28" s="2"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="2">
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2">
@@ -2877,7 +2877,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="2">
         <v>0</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="2">
         <v>0</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="2">
         <v>0</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="AD37" s="2"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="2">
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="2">
         <v>1</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="2">
         <v>1</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="AD46" s="2"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="2">
@@ -3630,7 +3630,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="2">
         <v>1</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="AD50" s="2"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="2">
@@ -3909,7 +3909,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="2">
         <v>1</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2">
         <v>1</v>
       </c>
@@ -5066,19 +5066,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
